--- a/PSD/wins.xlsx
+++ b/PSD/wins.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Working\Python\PSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27690" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27696" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wins" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
   <si>
     <t>Law_Year</t>
   </si>
@@ -33,9 +34,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Imp</t>
-  </si>
-  <si>
     <t>San Francisco, CA</t>
   </si>
   <si>
@@ -205,14 +203,27 @@
   </si>
   <si>
     <t>Cook Co., IL</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Part time</t>
+  </si>
+  <si>
+    <t>Total (m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -692,11 +703,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -757,7 +771,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -770,40 +784,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8005928975277598E-2"/>
+          <c:y val="0.25712527869500185"/>
+          <c:w val="0.92171616649028587"/>
+          <c:h val="0.50281997008438462"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -813,7 +806,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="002060"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -821,13 +814,71 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>wins!$E$1:$P$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Imp</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2006</c:v>
@@ -862,54 +913,59 @@
                 <c:pt idx="11">
                   <c:v>2016</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wins!$E$42:$P$42</c:f>
+              <c:f>wins!$E$43:$P$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>786149</c:v>
+                  <c:v>0.78614899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>799185</c:v>
+                  <c:v>0.79918500000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1398075</c:v>
+                  <c:v>1.398075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1415015</c:v>
+                  <c:v>1.4150149999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1410949</c:v>
+                  <c:v>1.410949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5648365</c:v>
+                  <c:v>5.6483650000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5693244</c:v>
+                  <c:v>5.693244</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15029100</c:v>
+                  <c:v>15.0291</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60442888</c:v>
+                  <c:v>60.442888000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67607781</c:v>
+                  <c:v>67.607781000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90994789.266666666</c:v>
+                  <c:v>90.994789266666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88AB-4033-9C78-72E66EEA7DDD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -919,7 +975,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="50"/>
         <c:overlap val="-27"/>
         <c:axId val="448973384"/>
         <c:axId val="448977696"/>
@@ -980,6 +1036,264 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="448973384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>79.088206999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.216554000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.010248000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.245384999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.260840000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.830264999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.568656000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.293672000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0D8-4248-A6A6-F6C15CFF350C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="373793432"/>
+        <c:axId val="373793760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="373793432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373793760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373793760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="75"/>
+        </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
@@ -1027,7 +1341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448973384"/>
+        <c:crossAx val="373793432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1116,6 +1430,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1266,6 +1620,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1630,13 +2500,257 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00608</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96818</cdr:x>
+      <cdr:y>0.2508</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52C64B0-091F-4165-8E59-597715CAB435}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="24765" y="0"/>
+          <a:ext cx="3916680" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>More than 90 million people now live in jurisdictions with </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>  paid sick leave laws</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" i="1">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Population</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" i="1" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> of jurisdictions with paid sick leave laws, in millions of people</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050" i="1">
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01685</cdr:x>
+      <cdr:y>0.82366</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96712</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F6428F-A7B1-45FE-9575-058623A15E96}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="78105" y="2918460"/>
+          <a:ext cx="4404360" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>cepr.net</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Source:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Population data from U.S. Census Bureau; Jurisdictions data from </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  Family Values @ Work</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D81DC2C-05D6-41F7-9EE8-5A81001FEDDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1917,19 +3031,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="A1:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="10" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="10" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1942,8 +3056,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="E1">
+        <v>2005</v>
       </c>
       <c r="F1">
         <v>2006</v>
@@ -1979,18 +3093,18 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2006</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="F2">
         <v>786149</v>
@@ -2017,18 +3131,18 @@
         <v>839280</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2008</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>590074</v>
@@ -2058,18 +3172,18 @@
         <v>681170</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2011</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <v>622323</v>
@@ -2087,18 +3201,18 @@
         <v>683505</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2013</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>8422460</v>
@@ -2113,18 +3227,18 @@
         <v>8537673</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2013</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6">
         <v>259965</v>
@@ -2139,18 +3253,18 @@
         <v>264152</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2013</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>609132</v>
@@ -2159,32 +3273,32 @@
         <v>619334</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2014</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2200,18 +3314,18 @@
         <v>281764</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2014</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>64629</v>
@@ -2223,18 +3337,18 @@
         <v>64789</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2014</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>54268</v>
@@ -2246,18 +3360,18 @@
         <v>54195.733333333301</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <v>70732</v>
@@ -2269,18 +3383,18 @@
         <v>70635</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2014</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>146991</v>
@@ -2292,18 +3406,18 @@
         <v>147000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2014</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -2319,18 +3433,18 @@
         <v>38070.6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2014</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>84640</v>
@@ -2342,32 +3456,32 @@
         <v>84056</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2015</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2015</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2381,18 +3495,18 @@
         <v>47935.933333333298</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2015</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O18">
         <v>128367</v>
@@ -2401,18 +3515,18 @@
         <v>128640</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2015</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O19">
         <v>56668</v>
@@ -2421,18 +3535,18 @@
         <v>56910</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2015</v>
       </c>
       <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O20">
         <v>1564964</v>
@@ -2441,18 +3555,18 @@
         <v>1567872</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2015</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O21">
         <v>303864</v>
@@ -2461,190 +3575,190 @@
         <v>303625</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2015</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O22">
         <v>207660</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2016</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2016</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2016</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P25">
         <v>211277</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2016</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2016</v>
       </c>
       <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P27">
         <v>413651</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2016</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2016</v>
       </c>
       <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P29">
         <v>2704958</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2016</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2016</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P31">
         <v>302398</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2016</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P32">
         <v>211277</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2011</v>
       </c>
       <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
         <v>46</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
       </c>
       <c r="K33">
         <v>3589893</v>
@@ -2665,18 +3779,18 @@
         <v>3576452</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2014</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N34">
         <v>38680810</v>
@@ -2688,18 +3802,18 @@
         <v>39250017</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2014</v>
       </c>
       <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N35">
         <v>6749911</v>
@@ -2711,18 +3825,18 @@
         <v>6811779</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2015</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O36">
         <v>4024634</v>
@@ -2731,18 +3845,18 @@
         <v>4093465</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2016</v>
       </c>
       <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
         <v>53</v>
       </c>
-      <c r="C37" t="s">
-        <v>54</v>
-      </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37">
         <v>2018</v>
@@ -2751,18 +3865,18 @@
         <v>624594</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2016</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38">
         <v>2018</v>
@@ -2771,35 +3885,35 @@
         <v>7288000</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2016</v>
       </c>
       <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
         <v>56</v>
       </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P39">
         <v>6931071</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2015</v>
       </c>
       <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
         <v>58</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>59</v>
-      </c>
-      <c r="D40" t="s">
-        <v>60</v>
       </c>
       <c r="O40">
         <v>1036233</v>
@@ -2808,24 +3922,24 @@
         <v>1043863</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2016</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P41">
         <v>5203499</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>0</v>
       </c>
@@ -2872,10 +3986,359 @@
       <c r="P42">
         <f t="shared" si="0"/>
         <v>90994789.266666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E43" s="4">
+        <f>E42/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" ref="F43:P43" si="1">F42/1000000</f>
+        <v>0.78614899999999999</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="1"/>
+        <v>0.79918500000000003</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="1"/>
+        <v>1.398075</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4150149999999999</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="1"/>
+        <v>1.410949</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="1"/>
+        <v>5.6483650000000001</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="1"/>
+        <v>5.693244</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="1"/>
+        <v>15.0291</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="1"/>
+        <v>60.442888000000004</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="1"/>
+        <v>67.607781000000003</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" si="1"/>
+        <v>90.994789266666672</v>
+      </c>
+    </row>
+    <row r="52" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <v>27661</v>
+      </c>
+      <c r="O52">
+        <v>27603</v>
+      </c>
+    </row>
+    <row r="53" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N53">
+        <v>145715</v>
+      </c>
+      <c r="O53">
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="54" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <f>N52/N53</f>
+        <v>0.18982946162028619</v>
+      </c>
+      <c r="O54">
+        <f>O52/O53</f>
+        <v>0.18041176470588235</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>2010</v>
+      </c>
+      <c r="C1">
+        <v>2011</v>
+      </c>
+      <c r="D1">
+        <v>2012</v>
+      </c>
+      <c r="E1">
+        <v>2013</v>
+      </c>
+      <c r="F1">
+        <v>2014</v>
+      </c>
+      <c r="G1">
+        <v>2015</v>
+      </c>
+      <c r="H1">
+        <v>2016</v>
+      </c>
+      <c r="I1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>66</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>65</v>
+      </c>
+      <c r="G2">
+        <v>65</v>
+      </c>
+      <c r="H2">
+        <v>68</v>
+      </c>
+      <c r="I2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>118042100</v>
+      </c>
+      <c r="C3">
+        <v>119726200</v>
+      </c>
+      <c r="D3">
+        <v>122742800</v>
+      </c>
+      <c r="E3">
+        <v>124992900</v>
+      </c>
+      <c r="F3">
+        <v>128093600</v>
+      </c>
+      <c r="G3">
+        <v>130508100</v>
+      </c>
+      <c r="H3">
+        <v>133189200</v>
+      </c>
+      <c r="I3">
+        <v>135130100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f>B3*(B2/100)</f>
+        <v>79088207</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:I4" si="0">C3*(C2/100)</f>
+        <v>80216554</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>81010248</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>81245385</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>83260840</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>84830265</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>90568656</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>97293672</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <f>B4/1000000</f>
+        <v>79.088206999999997</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:I5" si="1">C4/1000000</f>
+        <v>80.216554000000002</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>81.010248000000004</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>81.245384999999999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>83.260840000000002</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>84.830264999999997</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>90.568656000000004</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>97.293672000000001</v>
+      </c>
+      <c r="K5">
+        <f>I5-F5</f>
+        <v>14.032831999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6">
+        <v>0.18982946162028619</v>
+      </c>
+      <c r="I6">
+        <v>0.18041176470588235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F7" s="5">
+        <f>F3*F6</f>
+        <v>24315939.125004292</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
+        <f t="shared" ref="G7:I7" si="2">I3*I6</f>
+        <v>24379059.805882353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>0.25</v>
+      </c>
+      <c r="I8">
+        <v>0.36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F9" s="6">
+        <f>F8*F7</f>
+        <v>6078984.7812510729</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
+        <f t="shared" ref="G9:I9" si="3">I8*I7</f>
+        <v>8776461.5301176477</v>
+      </c>
+      <c r="K9" s="6">
+        <f>I9-F9</f>
+        <v>2697476.7488665748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>0.25</v>
+      </c>
+      <c r="I10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <f>F3*F10</f>
+        <v>32023400</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="G11:I11" si="4">I3*I10</f>
+        <v>33782525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>0.34</v>
+      </c>
+      <c r="I12">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <f>F12*F11</f>
+        <v>10887956</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="G13:I13" si="5">I12*I11</f>
+        <v>15539961.5</v>
+      </c>
+      <c r="K13" s="5">
+        <f>I13-F13</f>
+        <v>4652005.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/PSD/wins.xlsx
+++ b/PSD/wins.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27696" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27690" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="wins" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -703,7 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -711,6 +711,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -771,7 +772,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -851,8 +852,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -956,12 +958,12 @@
                   <c:v>67.607781000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90.994789266666672</c:v>
+                  <c:v>88.289831266666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-88AB-4033-9C78-72E66EEA7DDD}"/>
             </c:ext>
@@ -977,11 +979,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="-27"/>
-        <c:axId val="448973384"/>
-        <c:axId val="448977696"/>
+        <c:axId val="381981952"/>
+        <c:axId val="381979992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="448973384"/>
+        <c:axId val="381981952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448977696"/>
+        <c:crossAx val="381979992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1032,7 +1034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448977696"/>
+        <c:axId val="381979992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,7 +1044,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448973384"/>
+        <c:crossAx val="381981952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1089,7 +1091,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1103,6 +1105,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1218,7 +1221,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A0D8-4248-A6A6-F6C15CFF350C}"/>
             </c:ext>
@@ -1233,11 +1236,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="373793432"/>
-        <c:axId val="373793760"/>
+        <c:axId val="381978424"/>
+        <c:axId val="381974896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="373793432"/>
+        <c:axId val="381978424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1283,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373793760"/>
+        <c:crossAx val="381974896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1288,7 +1291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373793760"/>
+        <c:axId val="381974896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1341,7 +1344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373793432"/>
+        <c:crossAx val="381978424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,7 +2512,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2549,7 @@
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52C64B0-091F-4165-8E59-597715CAB435}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52C64B0-091F-4165-8E59-597715CAB435}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -2680,7 +2683,7 @@
         <cdr:cNvPr id="3" name="TextBox 2">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F6428F-A7B1-45FE-9575-058623A15E96}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F6428F-A7B1-45FE-9575-058623A15E96}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -2747,7 +2750,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D81DC2C-05D6-41F7-9EE8-5A81001FEDDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D81DC2C-05D6-41F7-9EE8-5A81001FEDDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3031,19 +3034,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="A1:D41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="10" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -3131,7 +3135,7 @@
         <v>839280</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -3172,7 +3176,7 @@
         <v>681170</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -3201,7 +3205,7 @@
         <v>683505</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -3227,7 +3231,7 @@
         <v>8537673</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>264152</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -3273,7 +3277,7 @@
         <v>619334</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -3314,7 +3318,7 @@
         <v>281764</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -3337,7 +3341,7 @@
         <v>64789</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>54195.733333333301</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2014</v>
       </c>
@@ -3383,7 +3387,7 @@
         <v>70635</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>147000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -3433,7 +3437,7 @@
         <v>38070.6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -3456,7 +3460,7 @@
         <v>84056</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -3470,7 +3474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -3495,7 +3499,7 @@
         <v>47935.933333333298</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -3515,7 +3519,7 @@
         <v>128640</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2015</v>
       </c>
@@ -3535,7 +3539,7 @@
         <v>56910</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -3555,7 +3559,7 @@
         <v>1567872</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2015</v>
       </c>
@@ -3575,7 +3579,7 @@
         <v>303625</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -3592,7 +3596,7 @@
         <v>207660</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2016</v>
       </c>
@@ -3620,7 +3624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2016</v>
       </c>
@@ -3637,7 +3641,7 @@
         <v>211277</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2016</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2016</v>
       </c>
@@ -3668,7 +3672,7 @@
         <v>413651</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -3682,7 +3686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2016</v>
       </c>
@@ -3695,11 +3699,8 @@
       <c r="D29" t="s">
         <v>6</v>
       </c>
-      <c r="P29">
-        <v>2704958</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2016</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>302398</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2016</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>211277</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -3779,7 +3780,7 @@
         <v>3576452</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2014</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>39250017</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2014</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>6811779</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>4093465</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2016</v>
       </c>
@@ -3865,7 +3866,7 @@
         <v>624594</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2016</v>
       </c>
@@ -3885,7 +3886,7 @@
         <v>7288000</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -3901,8 +3902,44 @@
       <c r="P39">
         <v>6931071</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0.78614899999999999</v>
+      </c>
+      <c r="W39">
+        <v>0.79918500000000003</v>
+      </c>
+      <c r="X39">
+        <v>1.398075</v>
+      </c>
+      <c r="Y39">
+        <v>1.4150149999999999</v>
+      </c>
+      <c r="Z39">
+        <v>1.410949</v>
+      </c>
+      <c r="AA39">
+        <v>5.6483650000000001</v>
+      </c>
+      <c r="AB39">
+        <v>5.693244</v>
+      </c>
+      <c r="AC39">
+        <v>15.0291</v>
+      </c>
+      <c r="AD39">
+        <v>60.442888000000004</v>
+      </c>
+      <c r="AE39">
+        <v>67.607781000000003</v>
+      </c>
+      <c r="AF39">
+        <v>90.994789266666672</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -3922,7 +3959,7 @@
         <v>1043863</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -3939,56 +3976,56 @@
         <v>5203499</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E42">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E42" s="7">
         <v>0</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="7">
         <f>SUM(F2:F41)</f>
         <v>786149</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="7">
         <f t="shared" ref="G42:P42" si="0">SUM(G2:G41)</f>
         <v>799185</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="7">
         <f t="shared" si="0"/>
         <v>1398075</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="7">
         <f t="shared" si="0"/>
         <v>1415015</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="7">
         <f t="shared" si="0"/>
         <v>1410949</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="7">
         <f t="shared" si="0"/>
         <v>5648365</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="7">
         <f t="shared" si="0"/>
         <v>5693244</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="7">
         <f t="shared" si="0"/>
         <v>15029100</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="7">
         <f t="shared" si="0"/>
         <v>60442888</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="7">
         <f t="shared" si="0"/>
         <v>67607781</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="7">
         <f t="shared" si="0"/>
-        <v>90994789.266666666</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88289831.266666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E43" s="4">
         <f>E42/1000000</f>
         <v>0</v>
@@ -4035,10 +4072,10 @@
       </c>
       <c r="P43" s="4">
         <f t="shared" si="1"/>
-        <v>90.994789266666672</v>
-      </c>
-    </row>
-    <row r="52" spans="14:15" x14ac:dyDescent="0.3">
+        <v>88.289831266666667</v>
+      </c>
+    </row>
+    <row r="52" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N52">
         <v>27661</v>
       </c>
@@ -4046,7 +4083,7 @@
         <v>27603</v>
       </c>
     </row>
-    <row r="53" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N53">
         <v>145715</v>
       </c>
@@ -4054,7 +4091,7 @@
         <v>153000</v>
       </c>
     </row>
-    <row r="54" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N54">
         <f>N52/N53</f>
         <v>0.18982946162028619</v>
@@ -4066,7 +4103,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4074,20 +4112,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2010</v>
       </c>
@@ -4113,7 +4151,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -4142,7 +4180,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -4171,7 +4209,7 @@
         <v>135130100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>B3*(B2/100)</f>
         <v>79088207</v>
@@ -4208,7 +4246,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>B4/1000000</f>
         <v>79.088206999999997</v>
@@ -4246,7 +4284,7 @@
         <v>14.032831999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -4257,7 +4295,7 @@
         <v>0.18041176470588235</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" s="5">
         <f>F3*F6</f>
         <v>24315939.125004292</v>
@@ -4265,11 +4303,11 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5">
-        <f t="shared" ref="G7:I7" si="2">I3*I6</f>
+        <f t="shared" ref="I7" si="2">I3*I6</f>
         <v>24379059.805882353</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>0.25</v>
       </c>
@@ -4280,7 +4318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="6">
         <f>F8*F7</f>
         <v>6078984.7812510729</v>
@@ -4288,7 +4326,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6">
-        <f t="shared" ref="G9:I9" si="3">I8*I7</f>
+        <f t="shared" ref="I9" si="3">I8*I7</f>
         <v>8776461.5301176477</v>
       </c>
       <c r="K9" s="6">
@@ -4296,7 +4334,7 @@
         <v>2697476.7488665748</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>0.25</v>
       </c>
@@ -4304,17 +4342,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11">
         <f>F3*F10</f>
         <v>32023400</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="G11:I11" si="4">I3*I10</f>
+        <f t="shared" ref="I11" si="4">I3*I10</f>
         <v>33782525</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>0.34</v>
       </c>
@@ -4322,13 +4360,13 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13">
         <f>F12*F11</f>
         <v>10887956</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="G13:I13" si="5">I12*I11</f>
+        <f t="shared" ref="I13" si="5">I12*I11</f>
         <v>15539961.5</v>
       </c>
       <c r="K13" s="5">
